--- a/交接.xlsx
+++ b/交接.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="16635" windowHeight="7200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
   <si>
     <t>index.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -387,6 +388,10 @@
   </si>
   <si>
     <t>.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaaaa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -743,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1118,6 +1123,11 @@
     <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
